--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.94568441982146</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.8165752676129</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280.025799378624</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>45.83848654995168</v>
+        <v>7071.74531360843</v>
       </c>
       <c r="O2" t="n">
-        <v>66.61804724734513</v>
+        <v>6993.890772562212</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.69015424150047</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130.6463787491815</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8347186561244</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>801.9410636593328</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>123.2065791111714</v>
+        <v>9024.733389685653</v>
       </c>
       <c r="O2" t="n">
-        <v>132.5660025129069</v>
+        <v>9724.258249348202</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>13034.3101291405</v>
       </c>
       <c r="O2" t="n">
-        <v>243.898835483115</v>
+        <v>12860.17168993684</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>13151.8694977663</v>
       </c>
       <c r="O2" t="n">
-        <v>251.6412412625074</v>
+        <v>12860.17168993684</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>13601.27335063684</v>
       </c>
       <c r="O2" t="n">
-        <v>258.1818583861651</v>
+        <v>14937.56878732879</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>13601.27335063684</v>
       </c>
       <c r="O2" t="n">
-        <v>258.1818583861651</v>
+        <v>14937.56878732879</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1048.630918715531</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>290.0628494008129</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12790.5571197864</v>
+        <v>29049.07128553893</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19986.07402548</v>
+        <v>14942.0986357725</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>50998.86069102</v>
       </c>
       <c r="M2" t="n">
-        <v>6194.699311416</v>
+        <v>11228.70813999</v>
       </c>
       <c r="N2" t="n">
-        <v>5910.61751842227</v>
+        <v>7234.065805482506</v>
       </c>
       <c r="O2" t="n">
-        <v>3614.830831716645</v>
+        <v>6706.98109587673</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5691.481177556477</v>
+        <v>229.7730639432591</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>3802.629124084669</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41398.85482887103</v>
+        <v>45497.10196455504</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34188.60978791174</v>
+        <v>31193.54897596047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95084.32009712397</v>
+        <v>60261.72957930509</v>
       </c>
       <c r="M2" t="n">
-        <v>25091.3852380488</v>
+        <v>17372.009741075</v>
       </c>
       <c r="N2" t="n">
-        <v>18603.18783449914</v>
+        <v>9183.195375018162</v>
       </c>
       <c r="O2" t="n">
-        <v>9188.05730398127</v>
+        <v>7879.370036716139</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8518.893107342428</v>
+        <v>1130.173770197635</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>6421.52533993822</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>59472.16619493175</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>47961.699600109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>60261.72957930509</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>23972.55593590783</v>
       </c>
       <c r="N2" t="n">
-        <v>28980.58364833441</v>
+        <v>13612.16473193235</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>13127.84769058429</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8518.893107342428</v>
+        <v>1154.560868786964</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>6421.52533993822</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>59472.16619493175</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>47961.699600109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>60261.72957930509</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>23972.55593590783</v>
       </c>
       <c r="N2" t="n">
-        <v>28980.58364833441</v>
+        <v>13612.16473193235</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>13127.84769058429</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14380.32979116118</v>
+        <v>4711.01512927859</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>6421.52533993822</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>59472.16619493175</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>47961.699600109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>60261.72957930509</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>23972.55593590783</v>
       </c>
       <c r="N2" t="n">
-        <v>30912.02321854675</v>
+        <v>13612.16473193235</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>13127.84769058429</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14380.32979116118</v>
+        <v>4711.01512927859</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>6421.52533993822</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>59472.16619493175</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>47961.699600109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>60261.72957930509</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>23972.55593590783</v>
       </c>
       <c r="N2" t="n">
-        <v>30912.02321854675</v>
+        <v>13612.16473193235</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>13127.84769058429</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290.0628494008129</v>
+        <v>240.6633596400077</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29049.07128553893</v>
+        <v>29093.48942174729</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661196</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14942.0986357725</v>
+        <v>14865.25872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50998.86069102</v>
+        <v>50912.59821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>11228.70813999</v>
+        <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7234.065805482506</v>
+        <v>7296.869202533937</v>
       </c>
       <c r="O2" t="n">
-        <v>6706.98109587673</v>
+        <v>6890.515200515633</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>229.7730639432591</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3802.629124084669</v>
+        <v>5552.285197058362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45497.10196455504</v>
+        <v>56083.30735895225</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661196</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31193.54897596047</v>
+        <v>37116.14035239558</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60261.72957930509</v>
+        <v>73331.63626107729</v>
       </c>
       <c r="M2" t="n">
-        <v>17372.009741075</v>
+        <v>21807.55922437125</v>
       </c>
       <c r="N2" t="n">
-        <v>9183.195375018162</v>
+        <v>10850.09268200976</v>
       </c>
       <c r="O2" t="n">
-        <v>7879.370036716139</v>
+        <v>9413.745657571631</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.173770197635</v>
+        <v>1201.877283394627</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.52533993822</v>
+        <v>7553.073389192201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59472.16619493175</v>
+        <v>69964.32397151143</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661196</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47961.699600109</v>
+        <v>53248.72788943995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60261.72957930509</v>
+        <v>73331.63626107729</v>
       </c>
       <c r="M2" t="n">
-        <v>23972.55593590783</v>
+        <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>13612.16473193235</v>
+        <v>15462.19557169876</v>
       </c>
       <c r="O2" t="n">
-        <v>13127.84769058429</v>
+        <v>15293.66517109082</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1154.560868786964</v>
+        <v>1228.359695667991</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.52533993822</v>
+        <v>7553.073389192201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59472.16619493175</v>
+        <v>69964.32397151143</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661196</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47961.699600109</v>
+        <v>53248.72788943995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60261.72957930509</v>
+        <v>73331.63626107729</v>
       </c>
       <c r="M2" t="n">
-        <v>23972.55593590783</v>
+        <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>13612.16473193235</v>
+        <v>15462.19557169876</v>
       </c>
       <c r="O2" t="n">
-        <v>13127.84769058429</v>
+        <v>15293.66517109082</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4711.01512927859</v>
+        <v>5377.600707020665</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.52533993822</v>
+        <v>7553.073389192201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59472.16619493175</v>
+        <v>69964.32397151143</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661196</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47961.699600109</v>
+        <v>53248.72788943995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60261.72957930509</v>
+        <v>73331.63626107729</v>
       </c>
       <c r="M2" t="n">
-        <v>23972.55593590783</v>
+        <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>13612.16473193235</v>
+        <v>15462.19557169876</v>
       </c>
       <c r="O2" t="n">
-        <v>13127.84769058429</v>
+        <v>15293.66517109082</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4711.01512927859</v>
+        <v>5377.600707020665</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.52533993822</v>
+        <v>7553.073389192201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59472.16619493175</v>
+        <v>69964.32397151143</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661196</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47961.699600109</v>
+        <v>53248.72788943995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60261.72957930509</v>
+        <v>73331.63626107729</v>
       </c>
       <c r="M2" t="n">
-        <v>23972.55593590783</v>
+        <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>13612.16473193235</v>
+        <v>15462.19557169876</v>
       </c>
       <c r="O2" t="n">
-        <v>13127.84769058429</v>
+        <v>15293.66517109082</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7071.74531360843</v>
+        <v>7155.07579047334</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.890772562212</v>
+        <v>6980.325566461758</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9024.733389685653</v>
+        <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>9724.258249348202</v>
+        <v>12062.16651258332</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13034.3101291405</v>
+        <v>15130.68721665935</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17168993684</v>
+        <v>14760.15862166215</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13151.8694977663</v>
+        <v>15235.09591287046</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17168993684</v>
+        <v>14760.15862166215</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.27335063684</v>
+        <v>15770.8294222238</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.56878732879</v>
+        <v>17096.11734031053</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.27335063684</v>
+        <v>15770.8294222238</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.56878732879</v>
+        <v>17096.11734031053</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1048.630918715531</v>
+        <v>3903.181680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12790.5571197864</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511094005</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>19986.07402548</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6194.699311416</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5910.61751842227</v>
+        <v>2522.262693555688</v>
       </c>
       <c r="O2" t="n">
-        <v>3614.830831716645</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5691.481177556477</v>
+        <v>7866.650444893309</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>193157.6721582061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41398.85482887103</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>34188.60978791174</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95084.32009712397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25091.3852380488</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18603.18783449914</v>
+        <v>7447.14611719284</v>
       </c>
       <c r="O2" t="n">
-        <v>9188.05730398127</v>
+        <v>5738.32809205215</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8518.893107342428</v>
+        <v>25192.06655872156</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>305877.4738555389</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18684.91484728498</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664724</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28980.58364833441</v>
+        <v>13377.8379991023</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>9655.305390072674</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8518.893107342428</v>
+        <v>25192.06655872156</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>305877.4738555389</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18684.91484728498</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664724</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28980.58364833441</v>
+        <v>15193.05108298042</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>9655.305390072674</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14380.32979116118</v>
+        <v>34506.0427650795</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>305877.4738555389</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18684.91484728498</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664724</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30912.02321854675</v>
+        <v>15819.33071240372</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>9655.305390072674</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14380.32979116118</v>
+        <v>34506.0427650795</v>
       </c>
       <c r="B2" t="n">
-        <v>791.2696128415613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>305877.4738555389</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106323.4402145793</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18684.91484728498</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664724</v>
       </c>
       <c r="I2" t="n">
-        <v>92928.48389549277</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156427.3607989986</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>66089.39426025172</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30912.02321854675</v>
+        <v>15819.33071240372</v>
       </c>
       <c r="O2" t="n">
-        <v>26263.39639614913</v>
+        <v>9655.305390072674</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>48.94568441982146</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.8165752676129</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>280.025799378624</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>45.83848654995168</v>
+        <v>2367.37219622158</v>
       </c>
       <c r="O2" t="n">
-        <v>66.61804724734513</v>
+        <v>1995.762462679798</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.69015424150047</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>130.6463787491815</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8347186561244</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>801.9410636593328</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>123.2065791111714</v>
+        <v>7543.193583625169</v>
       </c>
       <c r="O2" t="n">
-        <v>132.5660025129069</v>
+        <v>6257.586732772244</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>12888.04225687751</v>
       </c>
       <c r="O2" t="n">
-        <v>243.898835483115</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>14045.89200932069</v>
       </c>
       <c r="O2" t="n">
-        <v>251.6412412625074</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>16880.86083028515</v>
       </c>
       <c r="O2" t="n">
-        <v>258.1818583861651</v>
+        <v>10096.08766803326</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.4584718852454</v>
+        <v>16880.86083028515</v>
       </c>
       <c r="O2" t="n">
-        <v>258.1818583861651</v>
+        <v>10096.08766803326</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -559,7 +559,7 @@
         <v>2522.262693555688</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.76246267978</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7447.14611719284</v>
+        <v>7447.146117192831</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.32809205215</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664724</v>
+        <v>11593.7641766462</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>13377.8379991023</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072674</v>
+        <v>9655.305390073641</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664724</v>
+        <v>11593.7641766462</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15193.05108298042</v>
+        <v>15193.05108298041</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072674</v>
+        <v>9655.305390073641</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664724</v>
+        <v>11593.7641766462</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>15819.33071240372</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072674</v>
+        <v>9655.305390073641</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664724</v>
+        <v>11593.7641766462</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>15819.33071240372</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390072674</v>
+        <v>9655.305390073641</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>240.6633596400077</v>
+        <v>240.663359640005</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29093.48942174729</v>
+        <v>29093.4894217473</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7296.869202533937</v>
+        <v>7296.86920253396</v>
       </c>
       <c r="O2" t="n">
-        <v>6890.515200515633</v>
+        <v>6890.515200515635</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56083.30735895225</v>
+        <v>56083.30735895228</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73331.63626107729</v>
+        <v>73331.63626107728</v>
       </c>
       <c r="M2" t="n">
         <v>21807.55922437125</v>
       </c>
       <c r="N2" t="n">
-        <v>10850.09268200976</v>
+        <v>10850.09268200978</v>
       </c>
       <c r="O2" t="n">
-        <v>9413.745657571631</v>
+        <v>9413.745657571635</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1201.877283394627</v>
+        <v>1201.877283394629</v>
       </c>
       <c r="B2" t="n">
-        <v>7553.073389192201</v>
+        <v>7553.073389192191</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69964.32397151143</v>
+        <v>69964.32397151145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53248.72788943995</v>
+        <v>53248.72788943935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73331.63626107729</v>
+        <v>73331.63626107728</v>
       </c>
       <c r="M2" t="n">
         <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>15462.19557169876</v>
+        <v>15462.19557169878</v>
       </c>
       <c r="O2" t="n">
-        <v>15293.66517109082</v>
+        <v>15293.66517109131</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +949,7 @@
         <v>1228.359695667991</v>
       </c>
       <c r="B2" t="n">
-        <v>7553.073389192201</v>
+        <v>7553.073389192191</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69964.32397151143</v>
+        <v>69964.32397151145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53248.72788943995</v>
+        <v>53248.72788943935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73331.63626107729</v>
+        <v>73331.63626107728</v>
       </c>
       <c r="M2" t="n">
         <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>15462.19557169876</v>
+        <v>15462.19557169878</v>
       </c>
       <c r="O2" t="n">
-        <v>15293.66517109082</v>
+        <v>15293.66517109131</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5377.600707020665</v>
+        <v>5377.600707020668</v>
       </c>
       <c r="B2" t="n">
-        <v>7553.073389192201</v>
+        <v>7553.073389192191</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69964.32397151143</v>
+        <v>69964.32397151145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53248.72788943995</v>
+        <v>53248.72788943935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73331.63626107729</v>
+        <v>73331.63626107728</v>
       </c>
       <c r="M2" t="n">
         <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>15462.19557169876</v>
+        <v>15462.19557169878</v>
       </c>
       <c r="O2" t="n">
-        <v>15293.66517109082</v>
+        <v>15293.66517109131</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5377.600707020665</v>
+        <v>5377.600707020668</v>
       </c>
       <c r="B2" t="n">
-        <v>7553.073389192201</v>
+        <v>7553.073389192191</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69964.32397151143</v>
+        <v>69964.32397151145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53248.72788943995</v>
+        <v>53248.72788943935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73331.63626107729</v>
+        <v>73331.63626107728</v>
       </c>
       <c r="M2" t="n">
         <v>28263.25588588425</v>
       </c>
       <c r="N2" t="n">
-        <v>15462.19557169876</v>
+        <v>15462.19557169878</v>
       </c>
       <c r="O2" t="n">
-        <v>15293.66517109082</v>
+        <v>15293.66517109131</v>
       </c>
     </row>
   </sheetData>

--- a/results/[9_cold_winters]_#_fix_cost.xlsx
+++ b/results/[9_cold_winters]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7155.07579047334</v>
+        <v>7155.075790473336</v>
       </c>
       <c r="O2" t="n">
-        <v>6980.325566461758</v>
+        <v>6980.325566461754</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10592.74688452318</v>
       </c>
       <c r="O2" t="n">
-        <v>12062.16651258332</v>
+        <v>12079.40905079305</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.68721665935</v>
+        <v>15117.91059331085</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15862166215</v>
+        <v>14761.05415301146</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15235.09591287046</v>
+        <v>15225.0345013318</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15862166215</v>
+        <v>14761.05415301146</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.8294222238</v>
+        <v>15769.988203862</v>
       </c>
       <c r="O2" t="n">
-        <v>17096.11734031053</v>
+        <v>17097.01287165992</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.8294222238</v>
+        <v>15769.988203862</v>
       </c>
       <c r="O2" t="n">
-        <v>17096.11734031053</v>
+        <v>17097.01287165992</v>
       </c>
     </row>
   </sheetData>
